--- a/biology/Zoologie/Adelosebastes_latens/Adelosebastes_latens.xlsx
+++ b/biology/Zoologie/Adelosebastes_latens/Adelosebastes_latens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelosebastes
 Adelosebastes latens, unique représentant du genre Adelosebastes, est une espèce de poissons osseux marins de la famille des Scorpaenidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelosebastes latens se rencontre dans la chaîne sous-marine Hawaï-Empereur (Pacifique nord-ouest[1]. Ce poisson est présent entre 900 et 1 200 m de profondeur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelosebastes latens se rencontre dans la chaîne sous-marine Hawaï-Empereur (Pacifique nord-ouest. Ce poisson est présent entre 900 et 1 200 m de profondeur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelosebastes latens peut mesurer jusqu'à 30 cm, queue non comprise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelosebastes latens peut mesurer jusqu'à 30 cm, queue non comprise.
 </t>
         </is>
       </c>
@@ -574,14 +590,86 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Adelosebastes latens Eschmeyer (d), Abe &amp; Nakano (d), 1979[2].
-Étymologie
-Le nom générique, Adelosebastes, du grec ancien ἄδηλος, ádēlos, « invisible », allusion non expliquée qui pourrait faire référence à la chaîne sous-marine Hawaï-Empereur, une zone peu étudiée, et Sebastes, le genre type de cette famille[3].
-L'épithète spécifique, du latin latens, « caché, discret », là encore non expliqué mais qui pourrait être également en rapport avec cette chaîne sous-marine[3].
-Publication originale
-(en) William N. Eschmeyer, Tokiharu Abe et Shoji Nakano, « Adelosebastes latens, a new genus and species of scorpionfish from the North Pacific Ocean (Pisces, Scorpaenidae) », Uo (Japanese Society of Ichthyologists), Japon, no 30,‎ 1979, p. 77-84.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Adelosebastes latens Eschmeyer (d), Abe &amp; Nakano (d), 1979.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adelosebastes_latens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelosebastes_latens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Adelosebastes, du grec ancien ἄδηλος, ádēlos, « invisible », allusion non expliquée qui pourrait faire référence à la chaîne sous-marine Hawaï-Empereur, une zone peu étudiée, et Sebastes, le genre type de cette famille.
+L'épithète spécifique, du latin latens, « caché, discret », là encore non expliqué mais qui pourrait être également en rapport avec cette chaîne sous-marine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelosebastes_latens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelosebastes_latens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) William N. Eschmeyer, Tokiharu Abe et Shoji Nakano, « Adelosebastes latens, a new genus and species of scorpionfish from the North Pacific Ocean (Pisces, Scorpaenidae) », Uo (Japanese Society of Ichthyologists), Japon, no 30,‎ 1979, p. 77-84.</t>
         </is>
       </c>
     </row>
